--- a/DB設計書_エンティティ一覧E-R図.xlsx
+++ b/DB設計書_エンティティ一覧E-R図.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://asojukustudent-my.sharepoint.com/personal/2201392_s_asojuku_ac_jp/Documents/２年授業ファイル/PHP最終課題/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2201392\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{081BE5F3-ED3C-440F-B144-1E6A4EB5A480}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{C754E74A-068E-45B5-9CF3-D84083049B1E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5392D205-AE58-45A7-9CD8-6B178CC6F7F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>バージョン</t>
     <phoneticPr fontId="4"/>
@@ -296,6 +296,28 @@
   </si>
   <si>
     <t>Cooking_work</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カテゴリー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レシピのカテゴリーの情報</t>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山﨑瑠璃</t>
+    <rPh sb="0" eb="4">
+      <t>ヤマサキルリ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -578,7 +600,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -656,9 +678,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -681,6 +700,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2559,7 +2584,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>材料</a:t>
+            <a:t>カテゴリー</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
             <a:solidFill>
@@ -3150,8 +3175,8 @@
   </sheetPr>
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.2"/>
@@ -3166,14 +3191,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
@@ -3235,7 +3260,9 @@
       <c r="E5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="18"/>
+      <c r="F5" s="18" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
@@ -3249,7 +3276,9 @@
       <c r="E6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="18"/>
+      <c r="F6" s="23">
+        <v>45301</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
@@ -3282,10 +3311,10 @@
       <c r="D9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="31"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
@@ -3300,10 +3329,10 @@
       <c r="D10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="33"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
@@ -3318,10 +3347,10 @@
       <c r="D11" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="33"/>
+      <c r="F11" s="32"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
@@ -3336,10 +3365,10 @@
       <c r="D12" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="33"/>
+      <c r="F12" s="32"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
@@ -3354,42 +3383,52 @@
       <c r="D13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="35"/>
+      <c r="F13" s="34"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="29"/>
+      <c r="A14" s="8">
+        <v>5</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="34"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="29"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="29"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="29"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="28"/>
     </row>
     <row r="18" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
@@ -3611,6 +3650,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
@@ -3621,11 +3665,6 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3640,6 +3679,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="0a3eed2a-dc3f-4901-97a1-c9b15f65d702" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010004024D21CC88294EB867CE557C065B1F" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="d338b2345a386c7fec608a8fb3895d5b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0a3eed2a-dc3f-4901-97a1-c9b15f65d702" xmlns:ns4="2321e679-d705-48e8-b245-11bdfc24fa7a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="39a2d544897afaf8dd5791c37e2895ae" ns3:_="" ns4:_="">
     <xsd:import namespace="0a3eed2a-dc3f-4901-97a1-c9b15f65d702"/>
@@ -3874,14 +3921,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="0a3eed2a-dc3f-4901-97a1-c9b15f65d702" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3892,6 +3931,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{015ABCEC-86AC-4514-ADE2-324BCB123D68}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2321e679-d705-48e8-b245-11bdfc24fa7a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="0a3eed2a-dc3f-4901-97a1-c9b15f65d702"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{163165B6-8139-4099-B2C5-3D1B85D58017}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3910,23 +3966,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{015ABCEC-86AC-4514-ADE2-324BCB123D68}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2321e679-d705-48e8-b245-11bdfc24fa7a"/>
-    <ds:schemaRef ds:uri="0a3eed2a-dc3f-4901-97a1-c9b15f65d702"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B43B84-1E77-4C49-90BB-0FD2422C5C60}">
   <ds:schemaRefs>
